--- a/추가피처데이터/투자자별매매동향(수급)/352820.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/352820.xlsx
@@ -1628,43 +1628,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1896,94 +1896,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1569</v>
+        <v>439381</v>
       </c>
       <c r="C6" s="7">
-        <v>1398</v>
+        <v>392433</v>
       </c>
       <c r="D6" s="9">
-        <v>172</v>
+        <v>46948</v>
       </c>
       <c r="E6" s="11">
-        <v>2798</v>
+        <v>784566</v>
       </c>
       <c r="F6" s="13">
-        <v>3023</v>
+        <v>848137</v>
       </c>
       <c r="G6" s="15">
-        <v>-225</v>
+        <v>-63571</v>
       </c>
       <c r="H6" s="17">
-        <v>1004</v>
+        <v>280982</v>
       </c>
       <c r="I6" s="19">
-        <v>971</v>
+        <v>270258</v>
       </c>
       <c r="J6" s="21">
-        <v>33</v>
+        <v>10725</v>
       </c>
       <c r="K6" s="23">
-        <v>309</v>
+        <v>86232</v>
       </c>
       <c r="L6" s="25">
-        <v>307</v>
+        <v>85594</v>
       </c>
       <c r="M6" s="27">
-        <v>2</v>
+        <v>638</v>
       </c>
       <c r="N6" s="29">
-        <v>43</v>
+        <v>12040</v>
       </c>
       <c r="O6" s="31">
-        <v>34</v>
+        <v>9416</v>
       </c>
       <c r="P6" s="33">
-        <v>9</v>
+        <v>2624</v>
       </c>
       <c r="Q6" s="35">
-        <v>197</v>
+        <v>55159</v>
       </c>
       <c r="R6" s="37">
-        <v>205</v>
+        <v>56235</v>
       </c>
       <c r="S6" s="39">
-        <v>-7</v>
+        <v>-1076</v>
       </c>
       <c r="T6" s="41">
-        <v>5</v>
+        <v>1440</v>
       </c>
       <c r="U6" s="43">
-        <v>2</v>
+        <v>643</v>
       </c>
       <c r="V6" s="45">
-        <v>3</v>
+        <v>797</v>
       </c>
       <c r="W6" s="47">
-        <v>3</v>
+        <v>885</v>
       </c>
       <c r="X6" s="49">
-        <v>9</v>
+        <v>2519</v>
       </c>
       <c r="Y6" s="51">
-        <v>-6</v>
+        <v>-1633</v>
       </c>
       <c r="Z6" s="53">
-        <v>318</v>
+        <v>88973</v>
       </c>
       <c r="AA6" s="55">
-        <v>249</v>
+        <v>69753</v>
       </c>
       <c r="AB6" s="57">
-        <v>70</v>
+        <v>19220</v>
       </c>
       <c r="AC6" s="59">
-        <v>129</v>
+        <v>36252</v>
       </c>
       <c r="AD6" s="61">
-        <v>166</v>
+        <v>46098</v>
       </c>
       <c r="AE6" s="63">
-        <v>-37</v>
+        <v>-9846</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1995,16 +1995,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>76</v>
+        <v>21427</v>
       </c>
       <c r="AJ6" s="73">
-        <v>56</v>
+        <v>15529</v>
       </c>
       <c r="AK6" s="75">
-        <v>20</v>
+        <v>5899</v>
       </c>
       <c r="AL6" s="77">
-        <v>5447</v>
+        <v>1526356</v>
       </c>
     </row>
     <row r="7">
@@ -2012,94 +2012,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2152</v>
+        <v>510245</v>
       </c>
       <c r="C7" s="7">
-        <v>1475</v>
+        <v>354715</v>
       </c>
       <c r="D7" s="9">
-        <v>677</v>
+        <v>155530</v>
       </c>
       <c r="E7" s="11">
-        <v>2822</v>
+        <v>673795</v>
       </c>
       <c r="F7" s="13">
-        <v>3935</v>
+        <v>927705</v>
       </c>
       <c r="G7" s="15">
-        <v>-1113</v>
+        <v>-253910</v>
       </c>
       <c r="H7" s="17">
-        <v>1395</v>
+        <v>330621</v>
       </c>
       <c r="I7" s="19">
-        <v>972</v>
+        <v>235339</v>
       </c>
       <c r="J7" s="21">
-        <v>423</v>
+        <v>95281</v>
       </c>
       <c r="K7" s="23">
-        <v>350</v>
+        <v>82525</v>
       </c>
       <c r="L7" s="25">
-        <v>386</v>
+        <v>93823</v>
       </c>
       <c r="M7" s="27">
-        <v>-37</v>
+        <v>-11298</v>
       </c>
       <c r="N7" s="29">
-        <v>76</v>
+        <v>17681</v>
       </c>
       <c r="O7" s="31">
-        <v>28</v>
+        <v>6779</v>
       </c>
       <c r="P7" s="33">
-        <v>48</v>
+        <v>10902</v>
       </c>
       <c r="Q7" s="35">
-        <v>308</v>
+        <v>73281</v>
       </c>
       <c r="R7" s="37">
-        <v>171</v>
+        <v>41317</v>
       </c>
       <c r="S7" s="39">
-        <v>137</v>
+        <v>31964</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="U7" s="43">
-        <v>5</v>
+        <v>1119</v>
       </c>
       <c r="V7" s="45">
-        <v>-4</v>
+        <v>-889</v>
       </c>
       <c r="W7" s="47">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="X7" s="49">
-        <v>3</v>
+        <v>613</v>
       </c>
       <c r="Y7" s="51">
-        <v>-2</v>
+        <v>-336</v>
       </c>
       <c r="Z7" s="53">
-        <v>348</v>
+        <v>83090</v>
       </c>
       <c r="AA7" s="55">
-        <v>180</v>
+        <v>43175</v>
       </c>
       <c r="AB7" s="57">
-        <v>168</v>
+        <v>39915</v>
       </c>
       <c r="AC7" s="59">
-        <v>311</v>
+        <v>73537</v>
       </c>
       <c r="AD7" s="61">
-        <v>199</v>
+        <v>48513</v>
       </c>
       <c r="AE7" s="63">
-        <v>112</v>
+        <v>25023</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2111,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>40</v>
+        <v>9650</v>
       </c>
       <c r="AJ7" s="73">
-        <v>27</v>
+        <v>6552</v>
       </c>
       <c r="AK7" s="75">
-        <v>13</v>
+        <v>3099</v>
       </c>
       <c r="AL7" s="77">
-        <v>6410</v>
+        <v>1524310</v>
       </c>
     </row>
     <row r="8">
@@ -2128,94 +2128,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>2021</v>
+        <v>373977</v>
       </c>
       <c r="C8" s="7">
-        <v>1527</v>
+        <v>280951</v>
       </c>
       <c r="D8" s="9">
-        <v>494</v>
+        <v>93027</v>
       </c>
       <c r="E8" s="11">
-        <v>2812</v>
+        <v>518052</v>
       </c>
       <c r="F8" s="13">
-        <v>3401</v>
+        <v>630314</v>
       </c>
       <c r="G8" s="15">
-        <v>-589</v>
+        <v>-112261</v>
       </c>
       <c r="H8" s="17">
-        <v>1154</v>
+        <v>214225</v>
       </c>
       <c r="I8" s="19">
-        <v>1054</v>
+        <v>194070</v>
       </c>
       <c r="J8" s="21">
-        <v>100</v>
+        <v>20155</v>
       </c>
       <c r="K8" s="23">
-        <v>335</v>
+        <v>61954</v>
       </c>
       <c r="L8" s="25">
-        <v>318</v>
+        <v>58352</v>
       </c>
       <c r="M8" s="27">
-        <v>17</v>
+        <v>3602</v>
       </c>
       <c r="N8" s="29">
-        <v>50</v>
+        <v>9292</v>
       </c>
       <c r="O8" s="31">
-        <v>36</v>
+        <v>6600</v>
       </c>
       <c r="P8" s="33">
-        <v>14</v>
+        <v>2692</v>
       </c>
       <c r="Q8" s="35">
-        <v>187</v>
+        <v>34820</v>
       </c>
       <c r="R8" s="37">
-        <v>164</v>
+        <v>30313</v>
       </c>
       <c r="S8" s="39">
-        <v>23</v>
+        <v>4507</v>
       </c>
       <c r="T8" s="41">
-        <v>5</v>
+        <v>844</v>
       </c>
       <c r="U8" s="43">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="V8" s="45">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="W8" s="47">
-        <v>8</v>
+        <v>1532</v>
       </c>
       <c r="X8" s="49">
-        <v>2</v>
+        <v>429</v>
       </c>
       <c r="Y8" s="51">
-        <v>6</v>
+        <v>1102</v>
       </c>
       <c r="Z8" s="53">
-        <v>279</v>
+        <v>51532</v>
       </c>
       <c r="AA8" s="55">
-        <v>259</v>
+        <v>47829</v>
       </c>
       <c r="AB8" s="57">
-        <v>20</v>
+        <v>3703</v>
       </c>
       <c r="AC8" s="59">
-        <v>291</v>
+        <v>54252</v>
       </c>
       <c r="AD8" s="61">
-        <v>272</v>
+        <v>50232</v>
       </c>
       <c r="AE8" s="63">
-        <v>18</v>
+        <v>4020</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>25</v>
+        <v>4532</v>
       </c>
       <c r="AJ8" s="73">
-        <v>29</v>
+        <v>5453</v>
       </c>
       <c r="AK8" s="75">
-        <v>-5</v>
+        <v>-921</v>
       </c>
       <c r="AL8" s="77">
-        <v>6012</v>
+        <v>1110787</v>
       </c>
     </row>
     <row r="9">
@@ -2244,94 +2244,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>2143</v>
+        <v>415045</v>
       </c>
       <c r="C9" s="7">
-        <v>1977</v>
+        <v>386077</v>
       </c>
       <c r="D9" s="9">
-        <v>165</v>
+        <v>28968</v>
       </c>
       <c r="E9" s="11">
-        <v>5715</v>
+        <v>1117870</v>
       </c>
       <c r="F9" s="13">
-        <v>5275</v>
+        <v>1031133</v>
       </c>
       <c r="G9" s="15">
-        <v>440</v>
+        <v>86737</v>
       </c>
       <c r="H9" s="17">
-        <v>1520</v>
+        <v>296038</v>
       </c>
       <c r="I9" s="19">
-        <v>2118</v>
+        <v>410317</v>
       </c>
       <c r="J9" s="21">
-        <v>-598</v>
+        <v>-114279</v>
       </c>
       <c r="K9" s="23">
-        <v>434</v>
+        <v>83699</v>
       </c>
       <c r="L9" s="25">
-        <v>604</v>
+        <v>118024</v>
       </c>
       <c r="M9" s="27">
-        <v>-171</v>
+        <v>-34325</v>
       </c>
       <c r="N9" s="29">
-        <v>61</v>
+        <v>11858</v>
       </c>
       <c r="O9" s="31">
-        <v>88</v>
+        <v>16808</v>
       </c>
       <c r="P9" s="33">
-        <v>-27</v>
+        <v>-4950</v>
       </c>
       <c r="Q9" s="35">
-        <v>331</v>
+        <v>64598</v>
       </c>
       <c r="R9" s="37">
-        <v>406</v>
+        <v>77691</v>
       </c>
       <c r="S9" s="39">
-        <v>-75</v>
+        <v>-13093</v>
       </c>
       <c r="T9" s="41">
-        <v>5</v>
+        <v>1050</v>
       </c>
       <c r="U9" s="43">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="V9" s="45">
-        <v>4</v>
+        <v>670</v>
       </c>
       <c r="W9" s="47">
-        <v>9</v>
+        <v>1711</v>
       </c>
       <c r="X9" s="49">
-        <v>7</v>
+        <v>1317</v>
       </c>
       <c r="Y9" s="51">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="Z9" s="53">
-        <v>465</v>
+        <v>90616</v>
       </c>
       <c r="AA9" s="55">
-        <v>521</v>
+        <v>100058</v>
       </c>
       <c r="AB9" s="57">
-        <v>-56</v>
+        <v>-9442</v>
       </c>
       <c r="AC9" s="59">
-        <v>216</v>
+        <v>42508</v>
       </c>
       <c r="AD9" s="61">
-        <v>491</v>
+        <v>96040</v>
       </c>
       <c r="AE9" s="63">
-        <v>-274</v>
+        <v>-53532</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2343,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>56</v>
+        <v>11012</v>
       </c>
       <c r="AJ9" s="73">
-        <v>63</v>
+        <v>12437</v>
       </c>
       <c r="AK9" s="75">
-        <v>-7</v>
+        <v>-1426</v>
       </c>
       <c r="AL9" s="77">
-        <v>9434</v>
+        <v>1839964</v>
       </c>
     </row>
     <row r="10">
@@ -2360,94 +2360,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1417</v>
+        <v>254448</v>
       </c>
       <c r="C10" s="7">
-        <v>1433</v>
+        <v>256341</v>
       </c>
       <c r="D10" s="9">
-        <v>-16</v>
+        <v>-1894</v>
       </c>
       <c r="E10" s="11">
-        <v>2349</v>
+        <v>419990</v>
       </c>
       <c r="F10" s="13">
-        <v>2447</v>
+        <v>439902</v>
       </c>
       <c r="G10" s="15">
-        <v>-97</v>
+        <v>-19912</v>
       </c>
       <c r="H10" s="17">
-        <v>1095</v>
+        <v>195784</v>
       </c>
       <c r="I10" s="19">
-        <v>946</v>
+        <v>167946</v>
       </c>
       <c r="J10" s="21">
-        <v>149</v>
+        <v>27838</v>
       </c>
       <c r="K10" s="23">
-        <v>382</v>
+        <v>68745</v>
       </c>
       <c r="L10" s="25">
-        <v>314</v>
+        <v>55726</v>
       </c>
       <c r="M10" s="27">
-        <v>68</v>
+        <v>13019</v>
       </c>
       <c r="N10" s="29">
-        <v>67</v>
+        <v>11963</v>
       </c>
       <c r="O10" s="31">
-        <v>44</v>
+        <v>7745</v>
       </c>
       <c r="P10" s="33">
-        <v>23</v>
+        <v>4219</v>
       </c>
       <c r="Q10" s="35">
-        <v>185</v>
+        <v>32991</v>
       </c>
       <c r="R10" s="37">
-        <v>170</v>
+        <v>30063</v>
       </c>
       <c r="S10" s="39">
-        <v>15</v>
+        <v>2929</v>
       </c>
       <c r="T10" s="41">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="U10" s="43">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="V10" s="45">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W10" s="47">
-        <v>4</v>
+        <v>708</v>
       </c>
       <c r="X10" s="49">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="Y10" s="51">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="Z10" s="53">
-        <v>300</v>
+        <v>53712</v>
       </c>
       <c r="AA10" s="55">
-        <v>222</v>
+        <v>39429</v>
       </c>
       <c r="AB10" s="57">
-        <v>78</v>
+        <v>14283</v>
       </c>
       <c r="AC10" s="59">
-        <v>155</v>
+        <v>27435</v>
       </c>
       <c r="AD10" s="61">
-        <v>193</v>
+        <v>34519</v>
       </c>
       <c r="AE10" s="63">
-        <v>-38</v>
+        <v>-7084</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>27</v>
+        <v>4960</v>
       </c>
       <c r="AJ10" s="73">
-        <v>63</v>
+        <v>10992</v>
       </c>
       <c r="AK10" s="75">
-        <v>-35</v>
+        <v>-6033</v>
       </c>
       <c r="AL10" s="77">
-        <v>4889</v>
+        <v>875182</v>
       </c>
     </row>
     <row r="11">
@@ -2476,94 +2476,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1196</v>
+        <v>193967</v>
       </c>
       <c r="C11" s="7">
-        <v>1580</v>
+        <v>255280</v>
       </c>
       <c r="D11" s="9">
-        <v>-384</v>
+        <v>-61312</v>
       </c>
       <c r="E11" s="11">
-        <v>1980</v>
+        <v>320536</v>
       </c>
       <c r="F11" s="13">
-        <v>2467</v>
+        <v>400365</v>
       </c>
       <c r="G11" s="15">
-        <v>-486</v>
+        <v>-79829</v>
       </c>
       <c r="H11" s="17">
-        <v>1568</v>
+        <v>253013</v>
       </c>
       <c r="I11" s="19">
-        <v>702</v>
+        <v>112781</v>
       </c>
       <c r="J11" s="21">
-        <v>866</v>
+        <v>140232</v>
       </c>
       <c r="K11" s="23">
-        <v>347</v>
+        <v>56107</v>
       </c>
       <c r="L11" s="25">
-        <v>291</v>
+        <v>46839</v>
       </c>
       <c r="M11" s="27">
-        <v>56</v>
+        <v>9267</v>
       </c>
       <c r="N11" s="29">
-        <v>79</v>
+        <v>12742</v>
       </c>
       <c r="O11" s="31">
-        <v>37</v>
+        <v>6065</v>
       </c>
       <c r="P11" s="33">
-        <v>41</v>
+        <v>6677</v>
       </c>
       <c r="Q11" s="35">
-        <v>386</v>
+        <v>62048</v>
       </c>
       <c r="R11" s="37">
-        <v>103</v>
+        <v>16593</v>
       </c>
       <c r="S11" s="39">
-        <v>282</v>
+        <v>45456</v>
       </c>
       <c r="T11" s="41">
-        <v>4</v>
+        <v>644</v>
       </c>
       <c r="U11" s="43">
-        <v>6</v>
+        <v>849</v>
       </c>
       <c r="V11" s="45">
-        <v>-2</v>
+        <v>-205</v>
       </c>
       <c r="W11" s="47">
-        <v>6</v>
+        <v>948</v>
       </c>
       <c r="X11" s="49">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="Y11" s="51">
-        <v>5</v>
+        <v>725</v>
       </c>
       <c r="Z11" s="53">
-        <v>449</v>
+        <v>72201</v>
       </c>
       <c r="AA11" s="55">
-        <v>150</v>
+        <v>24108</v>
       </c>
       <c r="AB11" s="57">
-        <v>299</v>
+        <v>48093</v>
       </c>
       <c r="AC11" s="59">
-        <v>297</v>
+        <v>48323</v>
       </c>
       <c r="AD11" s="61">
-        <v>113</v>
+        <v>18104</v>
       </c>
       <c r="AE11" s="63">
-        <v>184</v>
+        <v>30219</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2575,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>24</v>
+        <v>3949</v>
       </c>
       <c r="AJ11" s="73">
-        <v>19</v>
+        <v>3039</v>
       </c>
       <c r="AK11" s="75">
-        <v>5</v>
+        <v>910</v>
       </c>
       <c r="AL11" s="77">
-        <v>4768</v>
+        <v>771465</v>
       </c>
     </row>
     <row r="12">
@@ -2592,94 +2592,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1090</v>
+        <v>145950</v>
       </c>
       <c r="C12" s="7">
-        <v>1163</v>
+        <v>157423</v>
       </c>
       <c r="D12" s="9">
-        <v>-73</v>
+        <v>-11473</v>
       </c>
       <c r="E12" s="11">
-        <v>1519</v>
+        <v>204429</v>
       </c>
       <c r="F12" s="13">
-        <v>1873</v>
+        <v>252805</v>
       </c>
       <c r="G12" s="15">
-        <v>-354</v>
+        <v>-48376</v>
       </c>
       <c r="H12" s="17">
-        <v>1118</v>
+        <v>151876</v>
       </c>
       <c r="I12" s="19">
-        <v>674</v>
+        <v>89709</v>
       </c>
       <c r="J12" s="21">
-        <v>444</v>
+        <v>62167</v>
       </c>
       <c r="K12" s="23">
-        <v>384</v>
+        <v>51638</v>
       </c>
       <c r="L12" s="25">
-        <v>330</v>
+        <v>43219</v>
       </c>
       <c r="M12" s="27">
-        <v>54</v>
+        <v>8419</v>
       </c>
       <c r="N12" s="29">
-        <v>74</v>
+        <v>10189</v>
       </c>
       <c r="O12" s="31">
-        <v>22</v>
+        <v>2979</v>
       </c>
       <c r="P12" s="33">
-        <v>51</v>
+        <v>7210</v>
       </c>
       <c r="Q12" s="35">
-        <v>283</v>
+        <v>39105</v>
       </c>
       <c r="R12" s="37">
-        <v>79</v>
+        <v>10712</v>
       </c>
       <c r="S12" s="39">
-        <v>204</v>
+        <v>28393</v>
       </c>
       <c r="T12" s="41">
-        <v>5</v>
+        <v>742</v>
       </c>
       <c r="U12" s="43">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V12" s="45">
-        <v>5</v>
+        <v>715</v>
       </c>
       <c r="W12" s="47">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="X12" s="49">
-        <v>8</v>
+        <v>1107</v>
       </c>
       <c r="Y12" s="51">
-        <v>-2</v>
+        <v>-175</v>
       </c>
       <c r="Z12" s="53">
-        <v>172</v>
+        <v>23651</v>
       </c>
       <c r="AA12" s="55">
-        <v>159</v>
+        <v>21552</v>
       </c>
       <c r="AB12" s="57">
-        <v>13</v>
+        <v>2099</v>
       </c>
       <c r="AC12" s="59">
-        <v>193</v>
+        <v>25621</v>
       </c>
       <c r="AD12" s="61">
-        <v>75</v>
+        <v>10113</v>
       </c>
       <c r="AE12" s="63">
-        <v>118</v>
+        <v>15507</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>20</v>
+        <v>2731</v>
       </c>
       <c r="AJ12" s="73">
-        <v>38</v>
+        <v>5049</v>
       </c>
       <c r="AK12" s="75">
-        <v>-18</v>
+        <v>-2319</v>
       </c>
       <c r="AL12" s="77">
-        <v>3748</v>
+        <v>504986</v>
       </c>
     </row>
     <row r="13">
@@ -2708,94 +2708,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>2158</v>
+        <v>253531</v>
       </c>
       <c r="C13" s="7">
-        <v>2228</v>
+        <v>263646</v>
       </c>
       <c r="D13" s="9">
-        <v>-70</v>
+        <v>-10114</v>
       </c>
       <c r="E13" s="11">
-        <v>2120</v>
+        <v>251744</v>
       </c>
       <c r="F13" s="13">
-        <v>2190</v>
+        <v>258463</v>
       </c>
       <c r="G13" s="15">
-        <v>-70</v>
+        <v>-6719</v>
       </c>
       <c r="H13" s="17">
-        <v>945</v>
+        <v>112302</v>
       </c>
       <c r="I13" s="19">
-        <v>820</v>
+        <v>97340</v>
       </c>
       <c r="J13" s="21">
-        <v>125</v>
+        <v>14962</v>
       </c>
       <c r="K13" s="23">
-        <v>354</v>
+        <v>41939</v>
       </c>
       <c r="L13" s="25">
-        <v>319</v>
+        <v>37626</v>
       </c>
       <c r="M13" s="27">
-        <v>35</v>
+        <v>4314</v>
       </c>
       <c r="N13" s="29">
-        <v>41</v>
+        <v>4964</v>
       </c>
       <c r="O13" s="31">
-        <v>46</v>
+        <v>5718</v>
       </c>
       <c r="P13" s="33">
-        <v>-6</v>
+        <v>-754</v>
       </c>
       <c r="Q13" s="35">
-        <v>111</v>
+        <v>13278</v>
       </c>
       <c r="R13" s="37">
-        <v>66</v>
+        <v>7950</v>
       </c>
       <c r="S13" s="39">
-        <v>46</v>
+        <v>5327</v>
       </c>
       <c r="T13" s="41">
-        <v>3</v>
+        <v>348</v>
       </c>
       <c r="U13" s="43">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="V13" s="45">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="W13" s="47">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="X13" s="49">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="51">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="Z13" s="53">
-        <v>205</v>
+        <v>24557</v>
       </c>
       <c r="AA13" s="55">
-        <v>186</v>
+        <v>22042</v>
       </c>
       <c r="AB13" s="57">
-        <v>19</v>
+        <v>2516</v>
       </c>
       <c r="AC13" s="59">
-        <v>228</v>
+        <v>26886</v>
       </c>
       <c r="AD13" s="61">
-        <v>201</v>
+        <v>23754</v>
       </c>
       <c r="AE13" s="63">
-        <v>27</v>
+        <v>3132</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>24</v>
+        <v>2986</v>
       </c>
       <c r="AJ13" s="73">
-        <v>10</v>
+        <v>1114</v>
       </c>
       <c r="AK13" s="75">
-        <v>15</v>
+        <v>1871</v>
       </c>
       <c r="AL13" s="77">
-        <v>5247</v>
+        <v>620563</v>
       </c>
     </row>
     <row r="14">
@@ -2824,94 +2824,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>1182</v>
+        <v>179075</v>
       </c>
       <c r="C14" s="7">
-        <v>1132</v>
+        <v>174670</v>
       </c>
       <c r="D14" s="9">
-        <v>51</v>
+        <v>4405</v>
       </c>
       <c r="E14" s="11">
-        <v>2346</v>
+        <v>363574</v>
       </c>
       <c r="F14" s="13">
-        <v>2202</v>
+        <v>338167</v>
       </c>
       <c r="G14" s="15">
-        <v>144</v>
+        <v>25407</v>
       </c>
       <c r="H14" s="17">
-        <v>699</v>
+        <v>107624</v>
       </c>
       <c r="I14" s="19">
-        <v>889</v>
+        <v>136689</v>
       </c>
       <c r="J14" s="21">
-        <v>-190</v>
+        <v>-29065</v>
       </c>
       <c r="K14" s="23">
-        <v>270</v>
+        <v>41375</v>
       </c>
       <c r="L14" s="25">
-        <v>274</v>
+        <v>41581</v>
       </c>
       <c r="M14" s="27">
-        <v>-4</v>
+        <v>-206</v>
       </c>
       <c r="N14" s="29">
-        <v>14</v>
+        <v>2018</v>
       </c>
       <c r="O14" s="31">
-        <v>45</v>
+        <v>6794</v>
       </c>
       <c r="P14" s="33">
-        <v>-31</v>
+        <v>-4776</v>
       </c>
       <c r="Q14" s="35">
-        <v>73</v>
+        <v>11250</v>
       </c>
       <c r="R14" s="37">
-        <v>219</v>
+        <v>34290</v>
       </c>
       <c r="S14" s="39">
-        <v>-146</v>
+        <v>-23039</v>
       </c>
       <c r="T14" s="41">
-        <v>4</v>
+        <v>606</v>
       </c>
       <c r="U14" s="43">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V14" s="45">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="X14" s="49">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="Y14" s="51">
-        <v>-1</v>
+        <v>-117</v>
       </c>
       <c r="Z14" s="53">
-        <v>180</v>
+        <v>27948</v>
       </c>
       <c r="AA14" s="55">
-        <v>237</v>
+        <v>36084</v>
       </c>
       <c r="AB14" s="57">
-        <v>-57</v>
+        <v>-8136</v>
       </c>
       <c r="AC14" s="59">
-        <v>158</v>
+        <v>24359</v>
       </c>
       <c r="AD14" s="61">
-        <v>112</v>
+        <v>17737</v>
       </c>
       <c r="AE14" s="63">
-        <v>45</v>
+        <v>6622</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>9</v>
+        <v>1327</v>
       </c>
       <c r="AJ14" s="73">
-        <v>13</v>
+        <v>2075</v>
       </c>
       <c r="AK14" s="75">
-        <v>-5</v>
+        <v>-747</v>
       </c>
       <c r="AL14" s="77">
-        <v>4236</v>
+        <v>651601</v>
       </c>
     </row>
     <row r="15">
@@ -2940,94 +2940,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1682</v>
+        <v>299557</v>
       </c>
       <c r="C15" s="7">
-        <v>1547</v>
+        <v>275112</v>
       </c>
       <c r="D15" s="9">
-        <v>135</v>
+        <v>24445</v>
       </c>
       <c r="E15" s="11">
-        <v>3460</v>
+        <v>610228</v>
       </c>
       <c r="F15" s="13">
-        <v>3365</v>
+        <v>596932</v>
       </c>
       <c r="G15" s="15">
-        <v>96</v>
+        <v>13296</v>
       </c>
       <c r="H15" s="17">
-        <v>889</v>
+        <v>158382</v>
       </c>
       <c r="I15" s="19">
-        <v>1114</v>
+        <v>194926</v>
       </c>
       <c r="J15" s="21">
-        <v>-225</v>
+        <v>-36544</v>
       </c>
       <c r="K15" s="23">
-        <v>269</v>
+        <v>47810</v>
       </c>
       <c r="L15" s="25">
-        <v>321</v>
+        <v>56662</v>
       </c>
       <c r="M15" s="27">
-        <v>-52</v>
+        <v>-8853</v>
       </c>
       <c r="N15" s="29">
-        <v>35</v>
+        <v>6397</v>
       </c>
       <c r="O15" s="31">
-        <v>46</v>
+        <v>7929</v>
       </c>
       <c r="P15" s="33">
-        <v>-11</v>
+        <v>-1532</v>
       </c>
       <c r="Q15" s="35">
-        <v>117</v>
+        <v>20868</v>
       </c>
       <c r="R15" s="37">
-        <v>182</v>
+        <v>31977</v>
       </c>
       <c r="S15" s="39">
-        <v>-65</v>
+        <v>-11109</v>
       </c>
       <c r="T15" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U15" s="43">
-        <v>3</v>
+        <v>596</v>
       </c>
       <c r="V15" s="45">
-        <v>-3</v>
+        <v>-582</v>
       </c>
       <c r="W15" s="47">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="X15" s="49">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="Y15" s="51">
-        <v>-2</v>
+        <v>-252</v>
       </c>
       <c r="Z15" s="53">
-        <v>318</v>
+        <v>56504</v>
       </c>
       <c r="AA15" s="55">
-        <v>191</v>
+        <v>33291</v>
       </c>
       <c r="AB15" s="57">
-        <v>127</v>
+        <v>23213</v>
       </c>
       <c r="AC15" s="59">
-        <v>149</v>
+        <v>26696</v>
       </c>
       <c r="AD15" s="61">
-        <v>369</v>
+        <v>64126</v>
       </c>
       <c r="AE15" s="63">
-        <v>-220</v>
+        <v>-37430</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3039,16 +3039,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>48</v>
+        <v>8331</v>
       </c>
       <c r="AJ15" s="73">
-        <v>53</v>
+        <v>9528</v>
       </c>
       <c r="AK15" s="75">
-        <v>-6</v>
+        <v>-1197</v>
       </c>
       <c r="AL15" s="77">
-        <v>6079</v>
+        <v>1076497</v>
       </c>
     </row>
     <row r="16">
@@ -3056,94 +3056,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1621</v>
+        <v>257285</v>
       </c>
       <c r="C16" s="7">
-        <v>1609</v>
+        <v>259972</v>
       </c>
       <c r="D16" s="9">
-        <v>12</v>
+        <v>-2687</v>
       </c>
       <c r="E16" s="11">
-        <v>3133</v>
+        <v>504896</v>
       </c>
       <c r="F16" s="13">
-        <v>3205</v>
+        <v>515665</v>
       </c>
       <c r="G16" s="15">
-        <v>-72</v>
+        <v>-10770</v>
       </c>
       <c r="H16" s="17">
-        <v>1045</v>
+        <v>170936</v>
       </c>
       <c r="I16" s="19">
-        <v>972</v>
+        <v>155408</v>
       </c>
       <c r="J16" s="21">
-        <v>73</v>
+        <v>15528</v>
       </c>
       <c r="K16" s="23">
-        <v>226</v>
+        <v>36508</v>
       </c>
       <c r="L16" s="25">
-        <v>213</v>
+        <v>33954</v>
       </c>
       <c r="M16" s="27">
-        <v>13</v>
+        <v>2554</v>
       </c>
       <c r="N16" s="29">
-        <v>67</v>
+        <v>10895</v>
       </c>
       <c r="O16" s="31">
-        <v>54</v>
+        <v>8762</v>
       </c>
       <c r="P16" s="33">
-        <v>14</v>
+        <v>2133</v>
       </c>
       <c r="Q16" s="35">
-        <v>205</v>
+        <v>33460</v>
       </c>
       <c r="R16" s="37">
-        <v>139</v>
+        <v>22043</v>
       </c>
       <c r="S16" s="39">
-        <v>66</v>
+        <v>11416</v>
       </c>
       <c r="T16" s="41">
-        <v>2</v>
+        <v>325</v>
       </c>
       <c r="U16" s="43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V16" s="45">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="W16" s="47">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="X16" s="49">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="Y16" s="51">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Z16" s="53">
-        <v>275</v>
+        <v>45691</v>
       </c>
       <c r="AA16" s="55">
-        <v>234</v>
+        <v>37115</v>
       </c>
       <c r="AB16" s="57">
-        <v>41</v>
+        <v>8576</v>
       </c>
       <c r="AC16" s="59">
-        <v>267</v>
+        <v>43854</v>
       </c>
       <c r="AD16" s="61">
-        <v>330</v>
+        <v>53340</v>
       </c>
       <c r="AE16" s="63">
-        <v>-63</v>
+        <v>-9486</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>83</v>
+        <v>13583</v>
       </c>
       <c r="AJ16" s="73">
-        <v>97</v>
+        <v>15654</v>
       </c>
       <c r="AK16" s="75">
-        <v>-14</v>
+        <v>-2071</v>
       </c>
       <c r="AL16" s="77">
-        <v>5882</v>
+        <v>946700</v>
       </c>
     </row>
     <row r="17">
@@ -3172,94 +3172,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>3275</v>
+        <v>513400</v>
       </c>
       <c r="C17" s="7">
-        <v>3379</v>
+        <v>538186</v>
       </c>
       <c r="D17" s="9">
-        <v>-104</v>
+        <v>-24786</v>
       </c>
       <c r="E17" s="11">
-        <v>8877</v>
+        <v>1373490</v>
       </c>
       <c r="F17" s="13">
-        <v>8682</v>
+        <v>1335988</v>
       </c>
       <c r="G17" s="15">
-        <v>194</v>
+        <v>37502</v>
       </c>
       <c r="H17" s="17">
-        <v>1229</v>
+        <v>205754</v>
       </c>
       <c r="I17" s="19">
-        <v>1384</v>
+        <v>227783</v>
       </c>
       <c r="J17" s="21">
-        <v>-155</v>
+        <v>-22028</v>
       </c>
       <c r="K17" s="23">
-        <v>346</v>
+        <v>56771</v>
       </c>
       <c r="L17" s="25">
-        <v>316</v>
+        <v>55525</v>
       </c>
       <c r="M17" s="27">
-        <v>30</v>
+        <v>1246</v>
       </c>
       <c r="N17" s="29">
-        <v>54</v>
+        <v>8854</v>
       </c>
       <c r="O17" s="31">
-        <v>89</v>
+        <v>14492</v>
       </c>
       <c r="P17" s="33">
-        <v>-35</v>
+        <v>-5639</v>
       </c>
       <c r="Q17" s="35">
-        <v>237</v>
+        <v>41059</v>
       </c>
       <c r="R17" s="37">
-        <v>223</v>
+        <v>37483</v>
       </c>
       <c r="S17" s="39">
-        <v>14</v>
+        <v>3576</v>
       </c>
       <c r="T17" s="41">
+        <v>839</v>
+      </c>
+      <c r="U17" s="43">
+        <v>1507</v>
+      </c>
+      <c r="V17" s="45">
+        <v>-669</v>
+      </c>
+      <c r="W17" s="47">
+        <v>446</v>
+      </c>
+      <c r="X17" s="49">
+        <v>442</v>
+      </c>
+      <c r="Y17" s="51">
         <v>4</v>
       </c>
-      <c r="U17" s="43">
-        <v>9</v>
-      </c>
-      <c r="V17" s="45">
-        <v>-5</v>
-      </c>
-      <c r="W17" s="47">
-        <v>3</v>
-      </c>
-      <c r="X17" s="49">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="51">
-        <v>0</v>
-      </c>
       <c r="Z17" s="53">
-        <v>225</v>
+        <v>40237</v>
       </c>
       <c r="AA17" s="55">
-        <v>485</v>
+        <v>75624</v>
       </c>
       <c r="AB17" s="57">
-        <v>-260</v>
+        <v>-35388</v>
       </c>
       <c r="AC17" s="59">
-        <v>359</v>
+        <v>57549</v>
       </c>
       <c r="AD17" s="61">
-        <v>258</v>
+        <v>42708</v>
       </c>
       <c r="AE17" s="63">
-        <v>101</v>
+        <v>14841</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>119</v>
+        <v>17902</v>
       </c>
       <c r="AJ17" s="73">
-        <v>54</v>
+        <v>8590</v>
       </c>
       <c r="AK17" s="75">
-        <v>65</v>
+        <v>9312</v>
       </c>
       <c r="AL17" s="77">
-        <v>13501</v>
+        <v>2110546</v>
       </c>
     </row>
     <row r="18">
@@ -3288,94 +3288,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1395</v>
+        <v>313293</v>
       </c>
       <c r="C18" s="7">
-        <v>1277</v>
+        <v>289440</v>
       </c>
       <c r="D18" s="9">
-        <v>118</v>
+        <v>23853</v>
       </c>
       <c r="E18" s="11">
-        <v>2325</v>
+        <v>527649</v>
       </c>
       <c r="F18" s="13">
-        <v>1957</v>
+        <v>442171</v>
       </c>
       <c r="G18" s="15">
-        <v>367</v>
+        <v>85478</v>
       </c>
       <c r="H18" s="17">
-        <v>558</v>
+        <v>126464</v>
       </c>
       <c r="I18" s="19">
-        <v>1033</v>
+        <v>233604</v>
       </c>
       <c r="J18" s="21">
-        <v>-475</v>
+        <v>-107140</v>
       </c>
       <c r="K18" s="23">
-        <v>249</v>
+        <v>55635</v>
       </c>
       <c r="L18" s="25">
-        <v>216</v>
+        <v>49086</v>
       </c>
       <c r="M18" s="27">
-        <v>34</v>
+        <v>6550</v>
       </c>
       <c r="N18" s="29">
-        <v>11</v>
+        <v>2479</v>
       </c>
       <c r="O18" s="31">
-        <v>59</v>
+        <v>13439</v>
       </c>
       <c r="P18" s="33">
-        <v>-48</v>
+        <v>-10960</v>
       </c>
       <c r="Q18" s="35">
-        <v>49</v>
+        <v>11326</v>
       </c>
       <c r="R18" s="37">
-        <v>157</v>
+        <v>35174</v>
       </c>
       <c r="S18" s="39">
-        <v>-108</v>
+        <v>-23848</v>
       </c>
       <c r="T18" s="41">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="U18" s="43">
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="V18" s="45">
-        <v>-1</v>
+        <v>-276</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="X18" s="49">
-        <v>8</v>
+        <v>1829</v>
       </c>
       <c r="Y18" s="51">
-        <v>-6</v>
+        <v>-1478</v>
       </c>
       <c r="Z18" s="53">
-        <v>155</v>
+        <v>35386</v>
       </c>
       <c r="AA18" s="55">
-        <v>392</v>
+        <v>87973</v>
       </c>
       <c r="AB18" s="57">
-        <v>-237</v>
+        <v>-52587</v>
       </c>
       <c r="AC18" s="59">
-        <v>91</v>
+        <v>21014</v>
       </c>
       <c r="AD18" s="61">
-        <v>200</v>
+        <v>45554</v>
       </c>
       <c r="AE18" s="63">
-        <v>-109</v>
+        <v>-24540</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>17</v>
+        <v>3955</v>
       </c>
       <c r="AJ18" s="73">
-        <v>28</v>
+        <v>6146</v>
       </c>
       <c r="AK18" s="75">
-        <v>-10</v>
+        <v>-2191</v>
       </c>
       <c r="AL18" s="77">
-        <v>4295</v>
+        <v>971362</v>
       </c>
     </row>
     <row r="19">
@@ -3404,94 +3404,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1032</v>
+        <v>294473</v>
       </c>
       <c r="C19" s="7">
-        <v>1190</v>
+        <v>339625</v>
       </c>
       <c r="D19" s="9">
-        <v>-158</v>
+        <v>-45152</v>
       </c>
       <c r="E19" s="11">
-        <v>3985</v>
+        <v>1144395</v>
       </c>
       <c r="F19" s="13">
-        <v>3317</v>
+        <v>963378</v>
       </c>
       <c r="G19" s="15">
-        <v>668</v>
+        <v>181018</v>
       </c>
       <c r="H19" s="17">
-        <v>662</v>
+        <v>190390</v>
       </c>
       <c r="I19" s="19">
-        <v>1171</v>
+        <v>326004</v>
       </c>
       <c r="J19" s="21">
-        <v>-509</v>
+        <v>-135614</v>
       </c>
       <c r="K19" s="23">
-        <v>191</v>
+        <v>53822</v>
       </c>
       <c r="L19" s="25">
-        <v>289</v>
+        <v>81615</v>
       </c>
       <c r="M19" s="27">
-        <v>-98</v>
+        <v>-27793</v>
       </c>
       <c r="N19" s="29">
-        <v>28</v>
+        <v>8337</v>
       </c>
       <c r="O19" s="31">
-        <v>66</v>
+        <v>18208</v>
       </c>
       <c r="P19" s="33">
-        <v>-38</v>
+        <v>-9872</v>
       </c>
       <c r="Q19" s="35">
-        <v>127</v>
+        <v>36483</v>
       </c>
       <c r="R19" s="37">
-        <v>223</v>
+        <v>62180</v>
       </c>
       <c r="S19" s="39">
-        <v>-96</v>
+        <v>-25697</v>
       </c>
       <c r="T19" s="41">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="U19" s="43">
-        <v>8</v>
+        <v>2207</v>
       </c>
       <c r="V19" s="45">
-        <v>-7</v>
+        <v>-1882</v>
       </c>
       <c r="W19" s="47">
-        <v>3</v>
+        <v>846</v>
       </c>
       <c r="X19" s="49">
-        <v>5</v>
+        <v>1262</v>
       </c>
       <c r="Y19" s="51">
-        <v>-2</v>
+        <v>-416</v>
       </c>
       <c r="Z19" s="53">
-        <v>113</v>
+        <v>32457</v>
       </c>
       <c r="AA19" s="55">
-        <v>286</v>
+        <v>79329</v>
       </c>
       <c r="AB19" s="57">
-        <v>-173</v>
+        <v>-46872</v>
       </c>
       <c r="AC19" s="59">
-        <v>199</v>
+        <v>58121</v>
       </c>
       <c r="AD19" s="61">
-        <v>295</v>
+        <v>81203</v>
       </c>
       <c r="AE19" s="63">
-        <v>-96</v>
+        <v>-23081</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>42</v>
+        <v>12016</v>
       </c>
       <c r="AJ19" s="73">
-        <v>43</v>
+        <v>12268</v>
       </c>
       <c r="AK19" s="75">
-        <v>-1</v>
+        <v>-252</v>
       </c>
       <c r="AL19" s="77">
-        <v>5721</v>
+        <v>1641274</v>
       </c>
     </row>
     <row r="20">
@@ -3520,94 +3520,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1253</v>
+        <v>361171</v>
       </c>
       <c r="C20" s="7">
-        <v>1008</v>
+        <v>289993</v>
       </c>
       <c r="D20" s="9">
-        <v>245</v>
+        <v>71178</v>
       </c>
       <c r="E20" s="11">
-        <v>2376</v>
+        <v>682599</v>
       </c>
       <c r="F20" s="13">
-        <v>2568</v>
+        <v>742114</v>
       </c>
       <c r="G20" s="15">
-        <v>-192</v>
+        <v>-59514</v>
       </c>
       <c r="H20" s="17">
-        <v>618</v>
+        <v>179299</v>
       </c>
       <c r="I20" s="19">
-        <v>670</v>
+        <v>190631</v>
       </c>
       <c r="J20" s="21">
-        <v>-52</v>
+        <v>-11332</v>
       </c>
       <c r="K20" s="23">
-        <v>231</v>
+        <v>66996</v>
       </c>
       <c r="L20" s="25">
-        <v>203</v>
+        <v>58420</v>
       </c>
       <c r="M20" s="27">
-        <v>27</v>
+        <v>8576</v>
       </c>
       <c r="N20" s="29">
-        <v>26</v>
+        <v>7340</v>
       </c>
       <c r="O20" s="31">
-        <v>53</v>
+        <v>15159</v>
       </c>
       <c r="P20" s="33">
-        <v>-27</v>
+        <v>-7819</v>
       </c>
       <c r="Q20" s="35">
-        <v>89</v>
+        <v>25770</v>
       </c>
       <c r="R20" s="37">
-        <v>116</v>
+        <v>32861</v>
       </c>
       <c r="S20" s="39">
-        <v>-27</v>
+        <v>-7091</v>
       </c>
       <c r="T20" s="41">
-        <v>5</v>
+        <v>1383</v>
       </c>
       <c r="U20" s="43">
-        <v>2</v>
+        <v>634</v>
       </c>
       <c r="V20" s="45">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="W20" s="47">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="X20" s="49">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="Y20" s="51">
-        <v>3</v>
+        <v>747</v>
       </c>
       <c r="Z20" s="53">
-        <v>120</v>
+        <v>34461</v>
       </c>
       <c r="AA20" s="55">
-        <v>103</v>
+        <v>29431</v>
       </c>
       <c r="AB20" s="57">
-        <v>18</v>
+        <v>5031</v>
       </c>
       <c r="AC20" s="59">
-        <v>143</v>
+        <v>42347</v>
       </c>
       <c r="AD20" s="61">
-        <v>191</v>
+        <v>53871</v>
       </c>
       <c r="AE20" s="63">
-        <v>-48</v>
+        <v>-11524</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>28</v>
+        <v>8162</v>
       </c>
       <c r="AJ20" s="73">
-        <v>29</v>
+        <v>8494</v>
       </c>
       <c r="AK20" s="75">
-        <v>-1</v>
+        <v>-332</v>
       </c>
       <c r="AL20" s="77">
-        <v>4275</v>
+        <v>1231232</v>
       </c>
     </row>
     <row r="21">
@@ -3636,94 +3636,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1215</v>
+        <v>319299</v>
       </c>
       <c r="C21" s="7">
-        <v>1929</v>
+        <v>510635</v>
       </c>
       <c r="D21" s="9">
-        <v>-714</v>
+        <v>-191336</v>
       </c>
       <c r="E21" s="11">
-        <v>3526</v>
+        <v>938007</v>
       </c>
       <c r="F21" s="13">
-        <v>3212</v>
+        <v>858048</v>
       </c>
       <c r="G21" s="15">
-        <v>314</v>
+        <v>79960</v>
       </c>
       <c r="H21" s="17">
-        <v>1071</v>
+        <v>285609</v>
       </c>
       <c r="I21" s="19">
-        <v>693</v>
+        <v>179990</v>
       </c>
       <c r="J21" s="21">
-        <v>378</v>
+        <v>105619</v>
       </c>
       <c r="K21" s="23">
-        <v>290</v>
+        <v>75972</v>
       </c>
       <c r="L21" s="25">
-        <v>270</v>
+        <v>70635</v>
       </c>
       <c r="M21" s="27">
-        <v>20</v>
+        <v>5337</v>
       </c>
       <c r="N21" s="29">
-        <v>71</v>
+        <v>19216</v>
       </c>
       <c r="O21" s="31">
-        <v>35</v>
+        <v>9117</v>
       </c>
       <c r="P21" s="33">
-        <v>36</v>
+        <v>10099</v>
       </c>
       <c r="Q21" s="35">
-        <v>153</v>
+        <v>41153</v>
       </c>
       <c r="R21" s="37">
-        <v>59</v>
+        <v>15233</v>
       </c>
       <c r="S21" s="39">
-        <v>95</v>
+        <v>25920</v>
       </c>
       <c r="T21" s="41">
-        <v>5</v>
+        <v>1359</v>
       </c>
       <c r="U21" s="43">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="V21" s="45">
-        <v>5</v>
+        <v>1181</v>
       </c>
       <c r="W21" s="47">
-        <v>4</v>
+        <v>1166</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y21" s="51">
-        <v>4</v>
+        <v>1143</v>
       </c>
       <c r="Z21" s="53">
-        <v>278</v>
+        <v>74285</v>
       </c>
       <c r="AA21" s="55">
-        <v>178</v>
+        <v>46101</v>
       </c>
       <c r="AB21" s="57">
-        <v>100</v>
+        <v>28184</v>
       </c>
       <c r="AC21" s="59">
-        <v>270</v>
+        <v>72459</v>
       </c>
       <c r="AD21" s="61">
-        <v>151</v>
+        <v>38702</v>
       </c>
       <c r="AE21" s="63">
-        <v>118</v>
+        <v>33756</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>42</v>
+        <v>11254</v>
       </c>
       <c r="AJ21" s="73">
-        <v>21</v>
+        <v>5497</v>
       </c>
       <c r="AK21" s="75">
-        <v>22</v>
+        <v>5757</v>
       </c>
       <c r="AL21" s="77">
-        <v>5855</v>
+        <v>1554170</v>
       </c>
     </row>
     <row r="22">
@@ -3752,94 +3752,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>1381</v>
+        <v>384002</v>
       </c>
       <c r="C22" s="7">
-        <v>1357</v>
+        <v>387535</v>
       </c>
       <c r="D22" s="9">
-        <v>24</v>
+        <v>-3533</v>
       </c>
       <c r="E22" s="11">
-        <v>3289</v>
+        <v>953719</v>
       </c>
       <c r="F22" s="13">
-        <v>2577</v>
+        <v>736557</v>
       </c>
       <c r="G22" s="15">
-        <v>711</v>
+        <v>217162</v>
       </c>
       <c r="H22" s="17">
-        <v>643</v>
+        <v>183984</v>
       </c>
       <c r="I22" s="19">
-        <v>1369</v>
+        <v>395014</v>
       </c>
       <c r="J22" s="21">
-        <v>-726</v>
+        <v>-211030</v>
       </c>
       <c r="K22" s="23">
-        <v>267</v>
+        <v>76590</v>
       </c>
       <c r="L22" s="25">
-        <v>352</v>
+        <v>102788</v>
       </c>
       <c r="M22" s="27">
-        <v>-86</v>
+        <v>-26198</v>
       </c>
       <c r="N22" s="29">
-        <v>33</v>
+        <v>9375</v>
       </c>
       <c r="O22" s="31">
-        <v>141</v>
+        <v>41421</v>
       </c>
       <c r="P22" s="33">
-        <v>-108</v>
+        <v>-32046</v>
       </c>
       <c r="Q22" s="35">
-        <v>60</v>
+        <v>17396</v>
       </c>
       <c r="R22" s="37">
-        <v>229</v>
+        <v>63487</v>
       </c>
       <c r="S22" s="39">
-        <v>-168</v>
+        <v>-46091</v>
       </c>
       <c r="T22" s="41">
-        <v>2</v>
+        <v>597</v>
       </c>
       <c r="U22" s="43">
-        <v>4</v>
+        <v>1087</v>
       </c>
       <c r="V22" s="45">
-        <v>-2</v>
+        <v>-490</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X22" s="49">
-        <v>6</v>
+        <v>1675</v>
       </c>
       <c r="Y22" s="51">
-        <v>-6</v>
+        <v>-1669</v>
       </c>
       <c r="Z22" s="53">
-        <v>212</v>
+        <v>60287</v>
       </c>
       <c r="AA22" s="55">
-        <v>459</v>
+        <v>131809</v>
       </c>
       <c r="AB22" s="57">
-        <v>-246</v>
+        <v>-71522</v>
       </c>
       <c r="AC22" s="59">
-        <v>69</v>
+        <v>19732</v>
       </c>
       <c r="AD22" s="61">
-        <v>179</v>
+        <v>52747</v>
       </c>
       <c r="AE22" s="63">
-        <v>-110</v>
+        <v>-33015</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3851,16 +3851,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>39</v>
+        <v>11480</v>
       </c>
       <c r="AJ22" s="73">
-        <v>49</v>
+        <v>14078</v>
       </c>
       <c r="AK22" s="75">
-        <v>-9</v>
+        <v>-2599</v>
       </c>
       <c r="AL22" s="77">
-        <v>5352</v>
+        <v>1533185</v>
       </c>
     </row>
     <row r="23">
@@ -3868,94 +3868,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>1231</v>
+        <v>421598</v>
       </c>
       <c r="C23" s="7">
-        <v>1274</v>
+        <v>440291</v>
       </c>
       <c r="D23" s="9">
-        <v>-43</v>
+        <v>-18693</v>
       </c>
       <c r="E23" s="11">
-        <v>3478</v>
+        <v>1194257</v>
       </c>
       <c r="F23" s="13">
-        <v>3406</v>
+        <v>1170385</v>
       </c>
       <c r="G23" s="15">
-        <v>72</v>
+        <v>23872</v>
       </c>
       <c r="H23" s="17">
-        <v>1165</v>
+        <v>401722</v>
       </c>
       <c r="I23" s="19">
-        <v>1006</v>
+        <v>343121</v>
       </c>
       <c r="J23" s="21">
-        <v>159</v>
+        <v>58601</v>
       </c>
       <c r="K23" s="23">
-        <v>408</v>
+        <v>140218</v>
       </c>
       <c r="L23" s="25">
-        <v>334</v>
+        <v>114817</v>
       </c>
       <c r="M23" s="27">
+        <v>25401</v>
+      </c>
+      <c r="N23" s="29">
+        <v>17979</v>
+      </c>
+      <c r="O23" s="31">
+        <v>17905</v>
+      </c>
+      <c r="P23" s="33">
         <v>74</v>
       </c>
-      <c r="N23" s="29">
-        <v>52</v>
-      </c>
-      <c r="O23" s="31">
-        <v>52</v>
-      </c>
-      <c r="P23" s="33">
-        <v>0</v>
-      </c>
       <c r="Q23" s="35">
-        <v>147</v>
+        <v>50871</v>
       </c>
       <c r="R23" s="37">
-        <v>164</v>
+        <v>55468</v>
       </c>
       <c r="S23" s="39">
-        <v>-17</v>
+        <v>-4598</v>
       </c>
       <c r="T23" s="41">
-        <v>4</v>
+        <v>1272</v>
       </c>
       <c r="U23" s="43">
-        <v>2</v>
+        <v>749</v>
       </c>
       <c r="V23" s="45">
-        <v>2</v>
+        <v>523</v>
       </c>
       <c r="W23" s="47">
-        <v>3</v>
+        <v>1061</v>
       </c>
       <c r="X23" s="49">
-        <v>5</v>
+        <v>1664</v>
       </c>
       <c r="Y23" s="51">
-        <v>-2</v>
+        <v>-603</v>
       </c>
       <c r="Z23" s="53">
-        <v>366</v>
+        <v>125984</v>
       </c>
       <c r="AA23" s="55">
-        <v>236</v>
+        <v>80036</v>
       </c>
       <c r="AB23" s="57">
-        <v>129</v>
+        <v>45948</v>
       </c>
       <c r="AC23" s="59">
-        <v>185</v>
+        <v>64338</v>
       </c>
       <c r="AD23" s="61">
-        <v>213</v>
+        <v>72483</v>
       </c>
       <c r="AE23" s="63">
-        <v>-28</v>
+        <v>-8145</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3967,16 +3967,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>37</v>
+        <v>12617</v>
       </c>
       <c r="AJ23" s="73">
-        <v>224</v>
+        <v>76397</v>
       </c>
       <c r="AK23" s="75">
-        <v>-187</v>
+        <v>-63780</v>
       </c>
       <c r="AL23" s="77">
-        <v>5911</v>
+        <v>2030194</v>
       </c>
     </row>
     <row r="24">
@@ -3984,94 +3984,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>2180</v>
+        <v>826508</v>
       </c>
       <c r="C24" s="7">
-        <v>1651</v>
+        <v>623936</v>
       </c>
       <c r="D24" s="9">
-        <v>529</v>
+        <v>202572</v>
       </c>
       <c r="E24" s="11">
-        <v>5243</v>
+        <v>1995365</v>
       </c>
       <c r="F24" s="13">
-        <v>5855</v>
+        <v>2229548</v>
       </c>
       <c r="G24" s="15">
-        <v>-611</v>
+        <v>-234183</v>
       </c>
       <c r="H24" s="17">
-        <v>1212</v>
+        <v>463170</v>
       </c>
       <c r="I24" s="19">
-        <v>1118</v>
+        <v>427230</v>
       </c>
       <c r="J24" s="21">
-        <v>94</v>
+        <v>35940</v>
       </c>
       <c r="K24" s="23">
-        <v>568</v>
+        <v>218816</v>
       </c>
       <c r="L24" s="25">
-        <v>417</v>
+        <v>159104</v>
       </c>
       <c r="M24" s="27">
-        <v>151</v>
+        <v>59712</v>
       </c>
       <c r="N24" s="29">
-        <v>35</v>
+        <v>13366</v>
       </c>
       <c r="O24" s="31">
-        <v>42</v>
+        <v>15557</v>
       </c>
       <c r="P24" s="33">
-        <v>-7</v>
+        <v>-2191</v>
       </c>
       <c r="Q24" s="35">
-        <v>180</v>
+        <v>68018</v>
       </c>
       <c r="R24" s="37">
-        <v>168</v>
+        <v>64967</v>
       </c>
       <c r="S24" s="39">
-        <v>12</v>
+        <v>3051</v>
       </c>
       <c r="T24" s="41">
-        <v>1</v>
+        <v>492</v>
       </c>
       <c r="U24" s="43">
-        <v>3</v>
+        <v>959</v>
       </c>
       <c r="V24" s="45">
-        <v>-1</v>
+        <v>-468</v>
       </c>
       <c r="W24" s="47">
-        <v>11</v>
+        <v>4536</v>
       </c>
       <c r="X24" s="49">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="Y24" s="51">
-        <v>10</v>
+        <v>3976</v>
       </c>
       <c r="Z24" s="53">
-        <v>252</v>
+        <v>96062</v>
       </c>
       <c r="AA24" s="55">
-        <v>216</v>
+        <v>82882</v>
       </c>
       <c r="AB24" s="57">
-        <v>36</v>
+        <v>13180</v>
       </c>
       <c r="AC24" s="59">
-        <v>164</v>
+        <v>61882</v>
       </c>
       <c r="AD24" s="61">
-        <v>270</v>
+        <v>103202</v>
       </c>
       <c r="AE24" s="63">
-        <v>-107</v>
+        <v>-41320</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4083,16 +4083,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>79</v>
+        <v>29891</v>
       </c>
       <c r="AJ24" s="73">
-        <v>90</v>
+        <v>34220</v>
       </c>
       <c r="AK24" s="75">
-        <v>-11</v>
+        <v>-4329</v>
       </c>
       <c r="AL24" s="77">
-        <v>8714</v>
+        <v>3314934</v>
       </c>
     </row>
     <row r="25">
@@ -4100,94 +4100,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1451</v>
+        <v>457186</v>
       </c>
       <c r="C25" s="7">
-        <v>1446</v>
+        <v>454807</v>
       </c>
       <c r="D25" s="9">
-        <v>5</v>
+        <v>2379</v>
       </c>
       <c r="E25" s="11">
-        <v>4497</v>
+        <v>1421940</v>
       </c>
       <c r="F25" s="13">
-        <v>5183</v>
+        <v>1644410</v>
       </c>
       <c r="G25" s="15">
-        <v>-687</v>
+        <v>-222470</v>
       </c>
       <c r="H25" s="17">
-        <v>1388</v>
+        <v>440066</v>
       </c>
       <c r="I25" s="19">
-        <v>717</v>
+        <v>223337</v>
       </c>
       <c r="J25" s="21">
-        <v>671</v>
+        <v>216729</v>
       </c>
       <c r="K25" s="23">
-        <v>344</v>
+        <v>108300</v>
       </c>
       <c r="L25" s="25">
-        <v>260</v>
+        <v>82227</v>
       </c>
       <c r="M25" s="27">
-        <v>84</v>
+        <v>26073</v>
       </c>
       <c r="N25" s="29">
-        <v>70</v>
+        <v>22040</v>
       </c>
       <c r="O25" s="31">
-        <v>66</v>
+        <v>20983</v>
       </c>
       <c r="P25" s="33">
-        <v>4</v>
+        <v>1058</v>
       </c>
       <c r="Q25" s="35">
-        <v>217</v>
+        <v>68870</v>
       </c>
       <c r="R25" s="37">
-        <v>102</v>
+        <v>31663</v>
       </c>
       <c r="S25" s="39">
-        <v>115</v>
+        <v>37208</v>
       </c>
       <c r="T25" s="41">
-        <v>5</v>
+        <v>1609</v>
       </c>
       <c r="U25" s="43">
-        <v>4</v>
+        <v>1228</v>
       </c>
       <c r="V25" s="45">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="W25" s="47">
-        <v>2</v>
+        <v>577</v>
       </c>
       <c r="X25" s="49">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="Y25" s="51">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="Z25" s="53">
-        <v>464</v>
+        <v>148230</v>
       </c>
       <c r="AA25" s="55">
-        <v>144</v>
+        <v>43581</v>
       </c>
       <c r="AB25" s="57">
-        <v>321</v>
+        <v>104649</v>
       </c>
       <c r="AC25" s="59">
-        <v>285</v>
+        <v>90439</v>
       </c>
       <c r="AD25" s="61">
-        <v>140</v>
+        <v>43264</v>
       </c>
       <c r="AE25" s="63">
-        <v>145</v>
+        <v>47175</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4199,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>97</v>
+        <v>31206</v>
       </c>
       <c r="AJ25" s="73">
-        <v>86</v>
+        <v>27844</v>
       </c>
       <c r="AK25" s="75">
-        <v>11</v>
+        <v>3363</v>
       </c>
       <c r="AL25" s="77">
-        <v>7433</v>
+        <v>2350398</v>
       </c>
     </row>
     <row r="26">
@@ -4216,94 +4216,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>826</v>
+        <v>231568</v>
       </c>
       <c r="C26" s="7">
-        <v>963</v>
+        <v>268574</v>
       </c>
       <c r="D26" s="9">
-        <v>-137</v>
+        <v>-37007</v>
       </c>
       <c r="E26" s="11">
-        <v>2606</v>
+        <v>724774</v>
       </c>
       <c r="F26" s="13">
-        <v>2522</v>
+        <v>705387</v>
       </c>
       <c r="G26" s="15">
-        <v>84</v>
+        <v>19387</v>
       </c>
       <c r="H26" s="17">
-        <v>785</v>
+        <v>219716</v>
       </c>
       <c r="I26" s="19">
-        <v>738</v>
+        <v>203699</v>
       </c>
       <c r="J26" s="21">
-        <v>48</v>
+        <v>16017</v>
       </c>
       <c r="K26" s="23">
-        <v>168</v>
+        <v>47050</v>
       </c>
       <c r="L26" s="25">
-        <v>239</v>
+        <v>66247</v>
       </c>
       <c r="M26" s="27">
-        <v>-71</v>
+        <v>-19197</v>
       </c>
       <c r="N26" s="29">
-        <v>67</v>
+        <v>18780</v>
       </c>
       <c r="O26" s="31">
-        <v>54</v>
+        <v>14915</v>
       </c>
       <c r="P26" s="33">
-        <v>13</v>
+        <v>3865</v>
       </c>
       <c r="Q26" s="35">
-        <v>129</v>
+        <v>36109</v>
       </c>
       <c r="R26" s="37">
-        <v>98</v>
+        <v>26651</v>
       </c>
       <c r="S26" s="39">
-        <v>31</v>
+        <v>9458</v>
       </c>
       <c r="T26" s="41">
-        <v>5</v>
+        <v>1425</v>
       </c>
       <c r="U26" s="43">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="V26" s="45">
-        <v>5</v>
+        <v>1305</v>
       </c>
       <c r="W26" s="47">
-        <v>2</v>
+        <v>524</v>
       </c>
       <c r="X26" s="49">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="Y26" s="51">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="Z26" s="53">
-        <v>190</v>
+        <v>53571</v>
       </c>
       <c r="AA26" s="55">
-        <v>259</v>
+        <v>71142</v>
       </c>
       <c r="AB26" s="57">
-        <v>-69</v>
+        <v>-17571</v>
       </c>
       <c r="AC26" s="59">
-        <v>225</v>
+        <v>62258</v>
       </c>
       <c r="AD26" s="61">
-        <v>87</v>
+        <v>24453</v>
       </c>
       <c r="AE26" s="63">
-        <v>139</v>
+        <v>37805</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4315,16 +4315,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>26</v>
+        <v>7245</v>
       </c>
       <c r="AJ26" s="73">
-        <v>20</v>
+        <v>5643</v>
       </c>
       <c r="AK26" s="75">
-        <v>5</v>
+        <v>1602</v>
       </c>
       <c r="AL26" s="77">
-        <v>4243</v>
+        <v>1183303</v>
       </c>
     </row>
     <row r="27">
@@ -4332,94 +4332,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>687</v>
+        <v>201248</v>
       </c>
       <c r="C27" s="7">
-        <v>576</v>
+        <v>168841</v>
       </c>
       <c r="D27" s="9">
-        <v>111</v>
+        <v>32406</v>
       </c>
       <c r="E27" s="11">
-        <v>2286</v>
+        <v>672003</v>
       </c>
       <c r="F27" s="13">
-        <v>2619</v>
+        <v>772344</v>
       </c>
       <c r="G27" s="15">
-        <v>-333</v>
+        <v>-100341</v>
       </c>
       <c r="H27" s="17">
-        <v>828</v>
+        <v>245661</v>
       </c>
       <c r="I27" s="19">
-        <v>598</v>
+        <v>175344</v>
       </c>
       <c r="J27" s="21">
-        <v>231</v>
+        <v>70317</v>
       </c>
       <c r="K27" s="23">
-        <v>260</v>
+        <v>76420</v>
       </c>
       <c r="L27" s="25">
-        <v>218</v>
+        <v>63548</v>
       </c>
       <c r="M27" s="27">
-        <v>42</v>
+        <v>12872</v>
       </c>
       <c r="N27" s="29">
-        <v>37</v>
+        <v>10950</v>
       </c>
       <c r="O27" s="31">
-        <v>24</v>
+        <v>7093</v>
       </c>
       <c r="P27" s="33">
-        <v>13</v>
+        <v>3857</v>
       </c>
       <c r="Q27" s="35">
-        <v>83</v>
+        <v>24606</v>
       </c>
       <c r="R27" s="37">
-        <v>101</v>
+        <v>29679</v>
       </c>
       <c r="S27" s="39">
-        <v>-17</v>
+        <v>-5073</v>
       </c>
       <c r="T27" s="41">
+        <v>150</v>
+      </c>
+      <c r="U27" s="43">
         <v>1</v>
       </c>
-      <c r="U27" s="43">
-        <v>0</v>
-      </c>
       <c r="V27" s="45">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="W27" s="47">
         <v>0</v>
       </c>
       <c r="X27" s="49">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="Y27" s="51">
-        <v>-1</v>
+        <v>-150</v>
       </c>
       <c r="Z27" s="53">
-        <v>333</v>
+        <v>99170</v>
       </c>
       <c r="AA27" s="55">
-        <v>174</v>
+        <v>51085</v>
       </c>
       <c r="AB27" s="57">
-        <v>159</v>
+        <v>48085</v>
       </c>
       <c r="AC27" s="59">
-        <v>115</v>
+        <v>34365</v>
       </c>
       <c r="AD27" s="61">
-        <v>81</v>
+        <v>23786</v>
       </c>
       <c r="AE27" s="63">
-        <v>34</v>
+        <v>10578</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>20</v>
+        <v>5900</v>
       </c>
       <c r="AJ27" s="73">
-        <v>28</v>
+        <v>8283</v>
       </c>
       <c r="AK27" s="75">
-        <v>-8</v>
+        <v>-2383</v>
       </c>
       <c r="AL27" s="77">
-        <v>3820</v>
+        <v>1124812</v>
       </c>
     </row>
     <row r="28">
@@ -4448,94 +4448,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>1554</v>
+        <v>472890</v>
       </c>
       <c r="C28" s="7">
-        <v>1542</v>
+        <v>468423</v>
       </c>
       <c r="D28" s="9">
-        <v>13</v>
+        <v>4468</v>
       </c>
       <c r="E28" s="11">
-        <v>5187</v>
+        <v>1580373</v>
       </c>
       <c r="F28" s="13">
-        <v>5232</v>
+        <v>1596473</v>
       </c>
       <c r="G28" s="15">
-        <v>-45</v>
+        <v>-16100</v>
       </c>
       <c r="H28" s="17">
-        <v>933</v>
+        <v>284561</v>
       </c>
       <c r="I28" s="19">
-        <v>913</v>
+        <v>276901</v>
       </c>
       <c r="J28" s="21">
-        <v>19</v>
+        <v>7660</v>
       </c>
       <c r="K28" s="23">
-        <v>296</v>
+        <v>90156</v>
       </c>
       <c r="L28" s="25">
-        <v>267</v>
+        <v>81029</v>
       </c>
       <c r="M28" s="27">
-        <v>29</v>
+        <v>9127</v>
       </c>
       <c r="N28" s="29">
-        <v>63</v>
+        <v>19244</v>
       </c>
       <c r="O28" s="31">
-        <v>28</v>
+        <v>8574</v>
       </c>
       <c r="P28" s="33">
-        <v>34</v>
+        <v>10670</v>
       </c>
       <c r="Q28" s="35">
-        <v>126</v>
+        <v>38471</v>
       </c>
       <c r="R28" s="37">
-        <v>141</v>
+        <v>42535</v>
       </c>
       <c r="S28" s="39">
-        <v>-15</v>
+        <v>-4064</v>
       </c>
       <c r="T28" s="41">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="U28" s="43">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V28" s="45">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="W28" s="47">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y28" s="51">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="Z28" s="53">
-        <v>350</v>
+        <v>106512</v>
       </c>
       <c r="AA28" s="55">
-        <v>197</v>
+        <v>59395</v>
       </c>
       <c r="AB28" s="57">
-        <v>153</v>
+        <v>47117</v>
       </c>
       <c r="AC28" s="59">
-        <v>97</v>
+        <v>29593</v>
       </c>
       <c r="AD28" s="61">
-        <v>280</v>
+        <v>85201</v>
       </c>
       <c r="AE28" s="63">
-        <v>-183</v>
+        <v>-55608</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4547,16 +4547,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>58</v>
+        <v>17881</v>
       </c>
       <c r="AJ28" s="73">
-        <v>45</v>
+        <v>13908</v>
       </c>
       <c r="AK28" s="75">
-        <v>13</v>
+        <v>3972</v>
       </c>
       <c r="AL28" s="77">
-        <v>7733</v>
+        <v>2355704</v>
       </c>
     </row>
     <row r="29">
@@ -4564,94 +4564,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>5055</v>
+        <v>1470563</v>
       </c>
       <c r="C29" s="7">
-        <v>3598</v>
+        <v>1054155</v>
       </c>
       <c r="D29" s="9">
-        <v>1457</v>
+        <v>416408</v>
       </c>
       <c r="E29" s="11">
-        <v>7341</v>
+        <v>2167960</v>
       </c>
       <c r="F29" s="13">
-        <v>6120</v>
+        <v>1808168</v>
       </c>
       <c r="G29" s="15">
-        <v>1221</v>
+        <v>359792</v>
       </c>
       <c r="H29" s="17">
-        <v>2707</v>
+        <v>781104</v>
       </c>
       <c r="I29" s="19">
-        <v>4004</v>
+        <v>1165503</v>
       </c>
       <c r="J29" s="21">
-        <v>-1296</v>
+        <v>-384399</v>
       </c>
       <c r="K29" s="23">
-        <v>393</v>
+        <v>114612</v>
       </c>
       <c r="L29" s="25">
-        <v>514</v>
+        <v>149506</v>
       </c>
       <c r="M29" s="27">
-        <v>-121</v>
+        <v>-34894</v>
       </c>
       <c r="N29" s="29">
-        <v>193</v>
+        <v>55245</v>
       </c>
       <c r="O29" s="31">
-        <v>59</v>
+        <v>17873</v>
       </c>
       <c r="P29" s="33">
-        <v>134</v>
+        <v>37372</v>
       </c>
       <c r="Q29" s="35">
-        <v>593</v>
+        <v>168915</v>
       </c>
       <c r="R29" s="37">
-        <v>324</v>
+        <v>95646</v>
       </c>
       <c r="S29" s="39">
-        <v>269</v>
+        <v>73269</v>
       </c>
       <c r="T29" s="41">
-        <v>4</v>
+        <v>1104</v>
       </c>
       <c r="U29" s="43">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="V29" s="45">
-        <v>3</v>
+        <v>977</v>
       </c>
       <c r="W29" s="47">
-        <v>10</v>
+        <v>2862</v>
       </c>
       <c r="X29" s="49">
-        <v>986</v>
+        <v>289852</v>
       </c>
       <c r="Y29" s="51">
-        <v>-976</v>
+        <v>-286990</v>
       </c>
       <c r="Z29" s="53">
-        <v>1057</v>
+        <v>306284</v>
       </c>
       <c r="AA29" s="55">
-        <v>278</v>
+        <v>83251</v>
       </c>
       <c r="AB29" s="57">
-        <v>779</v>
+        <v>223033</v>
       </c>
       <c r="AC29" s="59">
-        <v>457</v>
+        <v>132081</v>
       </c>
       <c r="AD29" s="61">
-        <v>1842</v>
+        <v>529246</v>
       </c>
       <c r="AE29" s="63">
-        <v>-1385</v>
+        <v>-397165</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>108</v>
+        <v>32263</v>
       </c>
       <c r="AJ29" s="73">
-        <v>1490</v>
+        <v>424064</v>
       </c>
       <c r="AK29" s="75">
-        <v>-1382</v>
+        <v>-391801</v>
       </c>
       <c r="AL29" s="77">
-        <v>15211</v>
+        <v>4451890</v>
       </c>
     </row>
     <row r="30">
@@ -4680,94 +4680,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>2214</v>
+        <v>565058</v>
       </c>
       <c r="C30" s="7">
-        <v>1347</v>
+        <v>343915</v>
       </c>
       <c r="D30" s="9">
-        <v>867</v>
+        <v>221142</v>
       </c>
       <c r="E30" s="11">
-        <v>3290</v>
+        <v>839680</v>
       </c>
       <c r="F30" s="13">
-        <v>3292</v>
+        <v>845136</v>
       </c>
       <c r="G30" s="15">
-        <v>-2</v>
+        <v>-5456</v>
       </c>
       <c r="H30" s="17">
-        <v>577</v>
+        <v>147220</v>
       </c>
       <c r="I30" s="19">
-        <v>1431</v>
+        <v>360356</v>
       </c>
       <c r="J30" s="21">
-        <v>-855</v>
+        <v>-213136</v>
       </c>
       <c r="K30" s="23">
-        <v>149</v>
+        <v>37895</v>
       </c>
       <c r="L30" s="25">
-        <v>281</v>
+        <v>70350</v>
       </c>
       <c r="M30" s="27">
-        <v>-131</v>
+        <v>-32454</v>
       </c>
       <c r="N30" s="29">
-        <v>63</v>
+        <v>16280</v>
       </c>
       <c r="O30" s="31">
-        <v>38</v>
+        <v>9665</v>
       </c>
       <c r="P30" s="33">
-        <v>25</v>
+        <v>6615</v>
       </c>
       <c r="Q30" s="35">
-        <v>98</v>
+        <v>25026</v>
       </c>
       <c r="R30" s="37">
-        <v>161</v>
+        <v>39986</v>
       </c>
       <c r="S30" s="39">
-        <v>-64</v>
+        <v>-14960</v>
       </c>
       <c r="T30" s="41">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="U30" s="43">
-        <v>2</v>
+        <v>448</v>
       </c>
       <c r="V30" s="45">
-        <v>-1</v>
+        <v>-158</v>
       </c>
       <c r="W30" s="47">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="X30" s="49">
-        <v>200</v>
+        <v>51631</v>
       </c>
       <c r="Y30" s="51">
-        <v>-200</v>
+        <v>-51440</v>
       </c>
       <c r="Z30" s="53">
-        <v>225</v>
+        <v>57274</v>
       </c>
       <c r="AA30" s="55">
-        <v>107</v>
+        <v>26446</v>
       </c>
       <c r="AB30" s="57">
-        <v>118</v>
+        <v>30828</v>
       </c>
       <c r="AC30" s="59">
-        <v>40</v>
+        <v>10265</v>
       </c>
       <c r="AD30" s="61">
-        <v>642</v>
+        <v>161831</v>
       </c>
       <c r="AE30" s="63">
-        <v>-602</v>
+        <v>-151566</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4779,16 +4779,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>37</v>
+        <v>9686</v>
       </c>
       <c r="AJ30" s="73">
-        <v>48</v>
+        <v>12237</v>
       </c>
       <c r="AK30" s="75">
-        <v>-10</v>
+        <v>-2551</v>
       </c>
       <c r="AL30" s="77">
-        <v>6118</v>
+        <v>1561644</v>
       </c>
     </row>
     <row r="31">
@@ -4796,94 +4796,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>1425</v>
+        <v>361795</v>
       </c>
       <c r="C31" s="7">
-        <v>1220</v>
+        <v>310436</v>
       </c>
       <c r="D31" s="9">
-        <v>205</v>
+        <v>51359</v>
       </c>
       <c r="E31" s="11">
-        <v>8898</v>
+        <v>2250830</v>
       </c>
       <c r="F31" s="13">
-        <v>8465</v>
+        <v>2147653</v>
       </c>
       <c r="G31" s="15">
-        <v>433</v>
+        <v>103177</v>
       </c>
       <c r="H31" s="17">
-        <v>1476</v>
+        <v>371301</v>
       </c>
       <c r="I31" s="19">
-        <v>2032</v>
+        <v>505087</v>
       </c>
       <c r="J31" s="21">
-        <v>-556</v>
+        <v>-133786</v>
       </c>
       <c r="K31" s="23">
-        <v>423</v>
+        <v>106592</v>
       </c>
       <c r="L31" s="25">
-        <v>460</v>
+        <v>115631</v>
       </c>
       <c r="M31" s="27">
-        <v>-37</v>
+        <v>-9039</v>
       </c>
       <c r="N31" s="29">
-        <v>70</v>
+        <v>17774</v>
       </c>
       <c r="O31" s="31">
-        <v>105</v>
+        <v>25983</v>
       </c>
       <c r="P31" s="33">
-        <v>-35</v>
+        <v>-8208</v>
       </c>
       <c r="Q31" s="35">
-        <v>250</v>
+        <v>63498</v>
       </c>
       <c r="R31" s="37">
-        <v>395</v>
+        <v>97727</v>
       </c>
       <c r="S31" s="39">
-        <v>-145</v>
+        <v>-34229</v>
       </c>
       <c r="T31" s="41">
-        <v>2</v>
+        <v>557</v>
       </c>
       <c r="U31" s="43">
-        <v>7</v>
+        <v>1688</v>
       </c>
       <c r="V31" s="45">
-        <v>-5</v>
+        <v>-1131</v>
       </c>
       <c r="W31" s="47">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="X31" s="49">
-        <v>13</v>
+        <v>3319</v>
       </c>
       <c r="Y31" s="51">
-        <v>-12</v>
+        <v>-3083</v>
       </c>
       <c r="Z31" s="53">
-        <v>247</v>
+        <v>61784</v>
       </c>
       <c r="AA31" s="55">
-        <v>568</v>
+        <v>141007</v>
       </c>
       <c r="AB31" s="57">
-        <v>-321</v>
+        <v>-79223</v>
       </c>
       <c r="AC31" s="59">
-        <v>483</v>
+        <v>120860</v>
       </c>
       <c r="AD31" s="61">
-        <v>483</v>
+        <v>119733</v>
       </c>
       <c r="AE31" s="63">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4895,16 +4895,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>93</v>
+        <v>23406</v>
       </c>
       <c r="AJ31" s="73">
-        <v>176</v>
+        <v>44156</v>
       </c>
       <c r="AK31" s="75">
-        <v>-82</v>
+        <v>-20749</v>
       </c>
       <c r="AL31" s="77">
-        <v>11892</v>
+        <v>3007332</v>
       </c>
     </row>
     <row r="32">
@@ -4912,94 +4912,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>1341</v>
+        <v>282511</v>
       </c>
       <c r="C32" s="7">
-        <v>1788</v>
+        <v>375360</v>
       </c>
       <c r="D32" s="9">
-        <v>-447</v>
+        <v>-92849</v>
       </c>
       <c r="E32" s="11">
-        <v>4356</v>
+        <v>969774</v>
       </c>
       <c r="F32" s="13">
-        <v>4118</v>
+        <v>924367</v>
       </c>
       <c r="G32" s="15">
-        <v>238</v>
+        <v>45407</v>
       </c>
       <c r="H32" s="17">
-        <v>699</v>
+        <v>155584</v>
       </c>
       <c r="I32" s="19">
-        <v>559</v>
+        <v>124209</v>
       </c>
       <c r="J32" s="21">
-        <v>140</v>
+        <v>31375</v>
       </c>
       <c r="K32" s="23">
-        <v>143</v>
+        <v>31436</v>
       </c>
       <c r="L32" s="25">
-        <v>128</v>
+        <v>28152</v>
       </c>
       <c r="M32" s="27">
-        <v>15</v>
+        <v>3284</v>
       </c>
       <c r="N32" s="29">
-        <v>61</v>
+        <v>13435</v>
       </c>
       <c r="O32" s="31">
-        <v>30</v>
+        <v>6591</v>
       </c>
       <c r="P32" s="33">
-        <v>31</v>
+        <v>6844</v>
       </c>
       <c r="Q32" s="35">
-        <v>157</v>
+        <v>35049</v>
       </c>
       <c r="R32" s="37">
-        <v>106</v>
+        <v>23435</v>
       </c>
       <c r="S32" s="39">
-        <v>51</v>
+        <v>11614</v>
       </c>
       <c r="T32" s="41">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U32" s="43">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="V32" s="45">
-        <v>-1</v>
+        <v>-131</v>
       </c>
       <c r="W32" s="47">
-        <v>2</v>
+        <v>486</v>
       </c>
       <c r="X32" s="49">
-        <v>3</v>
+        <v>783</v>
       </c>
       <c r="Y32" s="51">
-        <v>-1</v>
+        <v>-297</v>
       </c>
       <c r="Z32" s="53">
-        <v>122</v>
+        <v>27068</v>
       </c>
       <c r="AA32" s="55">
-        <v>180</v>
+        <v>40436</v>
       </c>
       <c r="AB32" s="57">
-        <v>-58</v>
+        <v>-13367</v>
       </c>
       <c r="AC32" s="59">
-        <v>214</v>
+        <v>48022</v>
       </c>
       <c r="AD32" s="61">
-        <v>111</v>
+        <v>24594</v>
       </c>
       <c r="AE32" s="63">
-        <v>103</v>
+        <v>23428</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>105</v>
+        <v>24137</v>
       </c>
       <c r="AJ32" s="73">
-        <v>36</v>
+        <v>8070</v>
       </c>
       <c r="AK32" s="75">
-        <v>69</v>
+        <v>16067</v>
       </c>
       <c r="AL32" s="77">
-        <v>6501</v>
+        <v>1432006</v>
       </c>
     </row>
     <row r="33">
@@ -5028,94 +5028,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>1245</v>
+        <v>287491</v>
       </c>
       <c r="C33" s="7">
-        <v>1108</v>
+        <v>256675</v>
       </c>
       <c r="D33" s="9">
-        <v>137</v>
+        <v>30816</v>
       </c>
       <c r="E33" s="11">
-        <v>7108</v>
+        <v>1654505</v>
       </c>
       <c r="F33" s="13">
-        <v>6988</v>
+        <v>1628275</v>
       </c>
       <c r="G33" s="15">
-        <v>120</v>
+        <v>26229</v>
       </c>
       <c r="H33" s="17">
-        <v>735</v>
+        <v>171637</v>
       </c>
       <c r="I33" s="19">
-        <v>988</v>
+        <v>227723</v>
       </c>
       <c r="J33" s="21">
-        <v>-253</v>
+        <v>-56086</v>
       </c>
       <c r="K33" s="23">
-        <v>144</v>
+        <v>33236</v>
       </c>
       <c r="L33" s="25">
-        <v>209</v>
+        <v>48183</v>
       </c>
       <c r="M33" s="27">
-        <v>-65</v>
+        <v>-14947</v>
       </c>
       <c r="N33" s="29">
-        <v>34</v>
+        <v>7758</v>
       </c>
       <c r="O33" s="31">
-        <v>45</v>
+        <v>10369</v>
       </c>
       <c r="P33" s="33">
-        <v>-12</v>
+        <v>-2611</v>
       </c>
       <c r="Q33" s="35">
-        <v>213</v>
+        <v>49778</v>
       </c>
       <c r="R33" s="37">
-        <v>257</v>
+        <v>59458</v>
       </c>
       <c r="S33" s="39">
-        <v>-45</v>
+        <v>-9679</v>
       </c>
       <c r="T33" s="41">
-        <v>3</v>
+        <v>691</v>
       </c>
       <c r="U33" s="43">
-        <v>7</v>
+        <v>1676</v>
       </c>
       <c r="V33" s="45">
-        <v>-4</v>
+        <v>-985</v>
       </c>
       <c r="W33" s="47">
-        <v>5</v>
+        <v>1279</v>
       </c>
       <c r="X33" s="49">
-        <v>4</v>
+        <v>978</v>
       </c>
       <c r="Y33" s="51">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="Z33" s="53">
-        <v>213</v>
+        <v>49323</v>
       </c>
       <c r="AA33" s="55">
-        <v>231</v>
+        <v>53333</v>
       </c>
       <c r="AB33" s="57">
-        <v>-18</v>
+        <v>-4010</v>
       </c>
       <c r="AC33" s="59">
-        <v>124</v>
+        <v>29572</v>
       </c>
       <c r="AD33" s="61">
-        <v>234</v>
+        <v>53727</v>
       </c>
       <c r="AE33" s="63">
-        <v>-111</v>
+        <v>-24155</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5127,16 +5127,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>73</v>
+        <v>16823</v>
       </c>
       <c r="AJ33" s="73">
-        <v>76</v>
+        <v>17782</v>
       </c>
       <c r="AK33" s="75">
-        <v>-4</v>
+        <v>-959</v>
       </c>
       <c r="AL33" s="77">
-        <v>9160</v>
+        <v>2130455</v>
       </c>
     </row>
     <row r="34">
@@ -5144,94 +5144,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>1134</v>
+        <v>210204</v>
       </c>
       <c r="C34" s="7">
-        <v>1060</v>
+        <v>204041</v>
       </c>
       <c r="D34" s="9">
-        <v>75</v>
+        <v>6163</v>
       </c>
       <c r="E34" s="11">
-        <v>11351</v>
+        <v>2152802</v>
       </c>
       <c r="F34" s="13">
-        <v>11816</v>
+        <v>2242695</v>
       </c>
       <c r="G34" s="15">
-        <v>-465</v>
+        <v>-89893</v>
       </c>
       <c r="H34" s="17">
-        <v>2066</v>
+        <v>377635</v>
       </c>
       <c r="I34" s="19">
-        <v>1640</v>
+        <v>287060</v>
       </c>
       <c r="J34" s="21">
-        <v>425</v>
+        <v>90576</v>
       </c>
       <c r="K34" s="23">
-        <v>281</v>
+        <v>51508</v>
       </c>
       <c r="L34" s="25">
-        <v>310</v>
+        <v>54101</v>
       </c>
       <c r="M34" s="27">
-        <v>-29</v>
+        <v>-2592</v>
       </c>
       <c r="N34" s="29">
-        <v>170</v>
+        <v>31462</v>
       </c>
       <c r="O34" s="31">
-        <v>106</v>
+        <v>18688</v>
       </c>
       <c r="P34" s="33">
-        <v>64</v>
+        <v>12774</v>
       </c>
       <c r="Q34" s="35">
-        <v>437</v>
+        <v>80307</v>
       </c>
       <c r="R34" s="37">
-        <v>334</v>
+        <v>58050</v>
       </c>
       <c r="S34" s="39">
-        <v>103</v>
+        <v>22258</v>
       </c>
       <c r="T34" s="41">
-        <v>6</v>
+        <v>1153</v>
       </c>
       <c r="U34" s="43">
-        <v>5</v>
+        <v>890</v>
       </c>
       <c r="V34" s="45">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="W34" s="47">
-        <v>13</v>
+        <v>2374</v>
       </c>
       <c r="X34" s="49">
-        <v>23</v>
+        <v>4024</v>
       </c>
       <c r="Y34" s="51">
-        <v>-10</v>
+        <v>-1650</v>
       </c>
       <c r="Z34" s="53">
-        <v>794</v>
+        <v>145825</v>
       </c>
       <c r="AA34" s="55">
-        <v>271</v>
+        <v>46062</v>
       </c>
       <c r="AB34" s="57">
-        <v>523</v>
+        <v>99763</v>
       </c>
       <c r="AC34" s="59">
-        <v>365</v>
+        <v>65007</v>
       </c>
       <c r="AD34" s="61">
-        <v>591</v>
+        <v>105246</v>
       </c>
       <c r="AE34" s="63">
-        <v>-227</v>
+        <v>-40240</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5243,16 +5243,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>141</v>
+        <v>25562</v>
       </c>
       <c r="AJ34" s="73">
-        <v>176</v>
+        <v>32408</v>
       </c>
       <c r="AK34" s="75">
-        <v>-35</v>
+        <v>-6846</v>
       </c>
       <c r="AL34" s="77">
-        <v>14692</v>
+        <v>2766204</v>
       </c>
     </row>
     <row r="35">
@@ -5260,94 +5260,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>639</v>
+        <v>108319</v>
       </c>
       <c r="C35" s="7">
-        <v>652</v>
+        <v>111181</v>
       </c>
       <c r="D35" s="9">
-        <v>-13</v>
+        <v>-2862</v>
       </c>
       <c r="E35" s="11">
-        <v>3642</v>
+        <v>630753</v>
       </c>
       <c r="F35" s="13">
-        <v>3362</v>
+        <v>588610</v>
       </c>
       <c r="G35" s="15">
-        <v>280</v>
+        <v>42143</v>
       </c>
       <c r="H35" s="17">
-        <v>916</v>
+        <v>161253</v>
       </c>
       <c r="I35" s="19">
-        <v>806</v>
+        <v>137840</v>
       </c>
       <c r="J35" s="21">
-        <v>111</v>
+        <v>23413</v>
       </c>
       <c r="K35" s="23">
-        <v>114</v>
+        <v>19237</v>
       </c>
       <c r="L35" s="25">
-        <v>149</v>
+        <v>25473</v>
       </c>
       <c r="M35" s="27">
-        <v>-34</v>
+        <v>-6236</v>
       </c>
       <c r="N35" s="29">
-        <v>90</v>
+        <v>16064</v>
       </c>
       <c r="O35" s="31">
-        <v>44</v>
+        <v>7388</v>
       </c>
       <c r="P35" s="33">
-        <v>46</v>
+        <v>8676</v>
       </c>
       <c r="Q35" s="35">
-        <v>204</v>
+        <v>36582</v>
       </c>
       <c r="R35" s="37">
-        <v>206</v>
+        <v>35389</v>
       </c>
       <c r="S35" s="39">
-        <v>-2</v>
+        <v>1192</v>
       </c>
       <c r="T35" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U35" s="43">
-        <v>2</v>
+        <v>391</v>
       </c>
       <c r="V35" s="45">
-        <v>-2</v>
+        <v>-330</v>
       </c>
       <c r="W35" s="47">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="X35" s="49">
-        <v>7</v>
+        <v>1278</v>
       </c>
       <c r="Y35" s="51">
-        <v>-6</v>
+        <v>-976</v>
       </c>
       <c r="Z35" s="53">
-        <v>365</v>
+        <v>65224</v>
       </c>
       <c r="AA35" s="55">
-        <v>141</v>
+        <v>23751</v>
       </c>
       <c r="AB35" s="57">
-        <v>224</v>
+        <v>41473</v>
       </c>
       <c r="AC35" s="59">
-        <v>141</v>
+        <v>23783</v>
       </c>
       <c r="AD35" s="61">
-        <v>256</v>
+        <v>44170</v>
       </c>
       <c r="AE35" s="63">
-        <v>-116</v>
+        <v>-20387</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5359,16 +5359,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>84</v>
+        <v>14015</v>
       </c>
       <c r="AJ35" s="73">
-        <v>462</v>
+        <v>76708</v>
       </c>
       <c r="AK35" s="75">
-        <v>-378</v>
+        <v>-62693</v>
       </c>
       <c r="AL35" s="77">
-        <v>5281</v>
+        <v>914339</v>
       </c>
     </row>
     <row r="36">
@@ -5376,94 +5376,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>562</v>
+        <v>94982</v>
       </c>
       <c r="C36" s="7">
-        <v>410</v>
+        <v>69451</v>
       </c>
       <c r="D36" s="9">
-        <v>153</v>
+        <v>25531</v>
       </c>
       <c r="E36" s="11">
-        <v>8755</v>
+        <v>1471543</v>
       </c>
       <c r="F36" s="13">
-        <v>9368</v>
+        <v>1575031</v>
       </c>
       <c r="G36" s="15">
-        <v>-614</v>
+        <v>-103488</v>
       </c>
       <c r="H36" s="17">
-        <v>1288</v>
+        <v>219068</v>
       </c>
       <c r="I36" s="19">
-        <v>815</v>
+        <v>138722</v>
       </c>
       <c r="J36" s="21">
-        <v>473</v>
+        <v>80347</v>
       </c>
       <c r="K36" s="23">
-        <v>99</v>
+        <v>16910</v>
       </c>
       <c r="L36" s="25">
-        <v>115</v>
+        <v>19577</v>
       </c>
       <c r="M36" s="27">
-        <v>-16</v>
+        <v>-2667</v>
       </c>
       <c r="N36" s="29">
-        <v>83</v>
+        <v>14051</v>
       </c>
       <c r="O36" s="31">
-        <v>28</v>
+        <v>4771</v>
       </c>
       <c r="P36" s="33">
-        <v>55</v>
+        <v>9280</v>
       </c>
       <c r="Q36" s="35">
-        <v>256</v>
+        <v>43514</v>
       </c>
       <c r="R36" s="37">
-        <v>179</v>
+        <v>30770</v>
       </c>
       <c r="S36" s="39">
-        <v>77</v>
+        <v>12744</v>
       </c>
       <c r="T36" s="41">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="U36" s="43">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="V36" s="45">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="W36" s="47">
-        <v>3</v>
+        <v>513</v>
       </c>
       <c r="X36" s="49">
-        <v>35</v>
+        <v>5658</v>
       </c>
       <c r="Y36" s="51">
-        <v>-32</v>
+        <v>-5145</v>
       </c>
       <c r="Z36" s="53">
-        <v>571</v>
+        <v>98182</v>
       </c>
       <c r="AA36" s="55">
-        <v>84</v>
+        <v>14364</v>
       </c>
       <c r="AB36" s="57">
-        <v>487</v>
+        <v>83818</v>
       </c>
       <c r="AC36" s="59">
-        <v>274</v>
+        <v>45397</v>
       </c>
       <c r="AD36" s="61">
-        <v>372</v>
+        <v>63262</v>
       </c>
       <c r="AE36" s="63">
-        <v>-99</v>
+        <v>-17865</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5475,16 +5475,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>72</v>
+        <v>11938</v>
       </c>
       <c r="AJ36" s="73">
-        <v>84</v>
+        <v>14328</v>
       </c>
       <c r="AK36" s="75">
-        <v>-12</v>
+        <v>-2390</v>
       </c>
       <c r="AL36" s="77">
-        <v>10677</v>
+        <v>1797532</v>
       </c>
     </row>
     <row r="37">
@@ -5492,94 +5492,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="6">
-        <v>479</v>
+        <v>106785</v>
       </c>
       <c r="C37" s="8">
-        <v>784</v>
+        <v>186878</v>
       </c>
       <c r="D37" s="10">
-        <v>-305</v>
+        <v>-80093</v>
       </c>
       <c r="E37" s="12">
-        <v>21347</v>
+        <v>4627520</v>
       </c>
       <c r="F37" s="14">
-        <v>19346</v>
+        <v>4146015</v>
       </c>
       <c r="G37" s="16">
-        <v>2001</v>
+        <v>481505</v>
       </c>
       <c r="H37" s="18">
-        <v>1030</v>
+        <v>250364</v>
       </c>
       <c r="I37" s="20">
-        <v>1533</v>
+        <v>343220</v>
       </c>
       <c r="J37" s="22">
-        <v>-503</v>
+        <v>-92856</v>
       </c>
       <c r="K37" s="24">
-        <v>49</v>
+        <v>10638</v>
       </c>
       <c r="L37" s="26">
-        <v>118</v>
+        <v>32943</v>
       </c>
       <c r="M37" s="28">
-        <v>-69</v>
+        <v>-22305</v>
       </c>
       <c r="N37" s="30">
-        <v>113</v>
+        <v>28731</v>
       </c>
       <c r="O37" s="32">
-        <v>37</v>
+        <v>9055</v>
       </c>
       <c r="P37" s="34">
-        <v>76</v>
+        <v>19676</v>
       </c>
       <c r="Q37" s="36">
-        <v>243</v>
+        <v>61080</v>
       </c>
       <c r="R37" s="38">
-        <v>97</v>
+        <v>22643</v>
       </c>
       <c r="S37" s="40">
-        <v>146</v>
+        <v>38437</v>
       </c>
       <c r="T37" s="42">
-        <v>3</v>
+        <v>674</v>
       </c>
       <c r="U37" s="44">
-        <v>3</v>
+        <v>984</v>
       </c>
       <c r="V37" s="46">
-        <v>0</v>
+        <v>-311</v>
       </c>
       <c r="W37" s="48">
-        <v>5</v>
+        <v>944</v>
       </c>
       <c r="X37" s="50">
-        <v>38</v>
+        <v>11927</v>
       </c>
       <c r="Y37" s="52">
-        <v>-33</v>
+        <v>-10984</v>
       </c>
       <c r="Z37" s="54">
-        <v>419</v>
+        <v>105817</v>
       </c>
       <c r="AA37" s="56">
-        <v>61</v>
+        <v>13449</v>
       </c>
       <c r="AB37" s="58">
-        <v>358</v>
+        <v>92369</v>
       </c>
       <c r="AC37" s="60">
-        <v>198</v>
+        <v>42481</v>
       </c>
       <c r="AD37" s="62">
-        <v>1179</v>
+        <v>252218</v>
       </c>
       <c r="AE37" s="64">
-        <v>-981</v>
+        <v>-209738</v>
       </c>
       <c r="AF37" s="66">
         <v>0</v>
@@ -5591,16 +5591,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="72">
-        <v>101</v>
+        <v>21216</v>
       </c>
       <c r="AJ37" s="74">
-        <v>1295</v>
+        <v>329771</v>
       </c>
       <c r="AK37" s="76">
-        <v>-1194</v>
+        <v>-308555</v>
       </c>
       <c r="AL37" s="78">
-        <v>22958</v>
+        <v>5005884</v>
       </c>
     </row>
   </sheetData>
